--- a/Dataset Shrimple.xlsx
+++ b/Dataset Shrimple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2nd year 2nd sem\DSGP\Shrimple dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mail2\Documents\Projects\Shrimple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C167242-3A04-46BB-955F-6197E487C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA5290-1B27-429E-8247-9A114745724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D9EDC5CE-D308-419E-B779-AD5C2231A290}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D9EDC5CE-D308-419E-B779-AD5C2231A290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="16">
   <si>
     <t>DOC</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Transparency</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Date</t>
@@ -75,6 +72,18 @@
   </si>
   <si>
     <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Alkalnity</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -116,9 +125,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,24 +469,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A3866-A305-4700-8E89-9F6A12DB59F1}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -479,13 +495,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -493,7 +509,7 @@
         <v>45627</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>38</v>
@@ -501,10 +517,10 @@
       <c r="D2">
         <v>7.8</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
     </row>
@@ -513,7 +529,7 @@
         <v>45627</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -521,10 +537,10 @@
       <c r="D3">
         <v>7.8</v>
       </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
       <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
     </row>
@@ -533,7 +549,7 @@
         <v>45627</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>37</v>
@@ -541,10 +557,10 @@
       <c r="D4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
       <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
     </row>
@@ -553,7 +569,7 @@
         <v>45628</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -561,10 +577,10 @@
       <c r="D5">
         <v>7.7</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
       <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
     </row>
@@ -573,7 +589,7 @@
         <v>45628</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>38</v>
@@ -581,10 +597,10 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>15</v>
       </c>
     </row>
@@ -593,7 +609,7 @@
         <v>45628</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>38</v>
@@ -601,10 +617,10 @@
       <c r="D7">
         <v>7.9</v>
       </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
     </row>
@@ -613,7 +629,7 @@
         <v>45629</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -621,10 +637,10 @@
       <c r="D8">
         <v>7.9</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
     </row>
@@ -633,7 +649,7 @@
         <v>45629</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>39</v>
@@ -641,10 +657,10 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
         <v>20</v>
       </c>
     </row>
@@ -653,7 +669,7 @@
         <v>45629</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>39</v>
@@ -661,10 +677,10 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
     </row>
@@ -673,7 +689,7 @@
         <v>45630</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>41</v>
@@ -681,10 +697,10 @@
       <c r="D11">
         <v>7.8</v>
       </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
       <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
         <v>15</v>
       </c>
     </row>
@@ -693,7 +709,7 @@
         <v>45630</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -701,10 +717,10 @@
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
       <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
         <v>20</v>
       </c>
     </row>
@@ -713,7 +729,7 @@
         <v>45630</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -721,10 +737,10 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
       <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
         <v>25</v>
       </c>
     </row>
@@ -733,7 +749,7 @@
         <v>45631</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>42</v>
@@ -741,10 +757,10 @@
       <c r="D14">
         <v>7.9</v>
       </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
       <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
         <v>15</v>
       </c>
     </row>
@@ -753,7 +769,7 @@
         <v>45631</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>41</v>
@@ -761,10 +777,10 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
       <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
         <v>25</v>
       </c>
     </row>
@@ -773,7 +789,7 @@
         <v>45631</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>41</v>
@@ -781,19 +797,19 @@
       <c r="D16">
         <v>8.1</v>
       </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
       <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45632</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -801,19 +817,19 @@
       <c r="D17">
         <v>7.7</v>
       </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
       <c r="F17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45632</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>42</v>
@@ -821,19 +837,19 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
       <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45632</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>42</v>
@@ -841,19 +857,19 @@
       <c r="D19">
         <v>8.4</v>
       </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
       <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45633</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>44</v>
@@ -861,19 +877,19 @@
       <c r="D20">
         <v>7.7</v>
       </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
       <c r="F20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45633</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>43</v>
@@ -881,19 +897,19 @@
       <c r="D21">
         <v>8.5</v>
       </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
       <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45633</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>43</v>
@@ -901,19 +917,19 @@
       <c r="D22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
       <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45634</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -921,19 +937,19 @@
       <c r="D23">
         <v>7.9</v>
       </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
       <c r="F23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45634</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>44</v>
@@ -941,19 +957,19 @@
       <c r="D24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
       <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45634</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>44</v>
@@ -961,19 +977,19 @@
       <c r="D25">
         <v>8.4</v>
       </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
       <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45635</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>46</v>
@@ -981,19 +997,19 @@
       <c r="D26">
         <v>7.8</v>
       </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
       <c r="F26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45635</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>45</v>
@@ -1001,19 +1017,19 @@
       <c r="D27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
       <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45635</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>45</v>
@@ -1021,19 +1037,19 @@
       <c r="D28">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
       <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45636</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>47</v>
@@ -1041,19 +1057,19 @@
       <c r="D29">
         <v>7.8</v>
       </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
       <c r="F29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45636</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>46</v>
@@ -1061,19 +1077,19 @@
       <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
       <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45636</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>46</v>
@@ -1081,81 +1097,3117 @@
       <c r="D31">
         <v>8.4</v>
       </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
       <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45657</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>8.5</v>
       </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>8.6</v>
       </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45657</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>8.4</v>
       </c>
-      <c r="E34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45657</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>8.6</v>
       </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45657</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E36">
-        <v>11</v>
+      <c r="F36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>8.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>8.1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>8.4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>7.9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="3">
+        <v>9</v>
+      </c>
+      <c r="G53" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>8</v>
+      </c>
+      <c r="G56" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3">
+        <v>8</v>
+      </c>
+      <c r="G65" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3">
+        <v>9</v>
+      </c>
+      <c r="G71" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3">
+        <v>12</v>
+      </c>
+      <c r="G82" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="3">
+        <v>11</v>
+      </c>
+      <c r="G85" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3">
+        <v>10</v>
+      </c>
+      <c r="G86" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="3">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3">
+        <v>11</v>
+      </c>
+      <c r="G88" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" s="3">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="3">
+        <v>13</v>
+      </c>
+      <c r="G89" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="3">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="3">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>8.5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="3">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="3">
+        <v>14</v>
+      </c>
+      <c r="G93" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="3">
+        <v>13</v>
+      </c>
+      <c r="G94" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="D95" s="3">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="3">
+        <v>11</v>
+      </c>
+      <c r="G95" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="3">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="3">
+        <v>14</v>
+      </c>
+      <c r="G98" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="3">
+        <v>15</v>
+      </c>
+      <c r="G99" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="D100" s="3">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="3">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>18</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="3">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+      <c r="D102" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="3">
+        <v>17</v>
+      </c>
+      <c r="G102" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="3">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>19</v>
+      </c>
+      <c r="D104" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="3">
+        <v>15</v>
+      </c>
+      <c r="G104" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>19</v>
+      </c>
+      <c r="D105" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="3">
+        <v>16</v>
+      </c>
+      <c r="G105" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106" s="3">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="3">
+        <v>15</v>
+      </c>
+      <c r="G106" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="3">
+        <v>16</v>
+      </c>
+      <c r="G107" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108" s="3">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="3">
+        <v>16</v>
+      </c>
+      <c r="G108" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="3">
+        <v>17</v>
+      </c>
+      <c r="G109" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="3">
+        <v>16</v>
+      </c>
+      <c r="G110" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111" s="3">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="3">
+        <v>18</v>
+      </c>
+      <c r="G111" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="3">
+        <v>18</v>
+      </c>
+      <c r="G112" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="3">
+        <v>15</v>
+      </c>
+      <c r="G113" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>21</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="3">
+        <v>17</v>
+      </c>
+      <c r="G114" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>21</v>
+      </c>
+      <c r="D115" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="3">
+        <v>16</v>
+      </c>
+      <c r="G115" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>21</v>
+      </c>
+      <c r="D116" s="3">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="3">
+        <v>18</v>
+      </c>
+      <c r="G116" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117" s="3">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="3">
+        <v>17</v>
+      </c>
+      <c r="G117" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118" s="3">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="3">
+        <v>17</v>
+      </c>
+      <c r="G118" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="3">
+        <v>17</v>
+      </c>
+      <c r="G119" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="3">
+        <v>16</v>
+      </c>
+      <c r="G120" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>22</v>
+      </c>
+      <c r="D121" s="3">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="3">
+        <v>15</v>
+      </c>
+      <c r="G121" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="3">
+        <v>15</v>
+      </c>
+      <c r="G122" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="3">
+        <v>15</v>
+      </c>
+      <c r="G123" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+      <c r="D124" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="3">
+        <v>17</v>
+      </c>
+      <c r="G124" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>23</v>
+      </c>
+      <c r="D125" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="3">
+        <v>16</v>
+      </c>
+      <c r="G125" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>23</v>
+      </c>
+      <c r="D126" s="3">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="3">
+        <v>15</v>
+      </c>
+      <c r="G126" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="3">
+        <v>15</v>
+      </c>
+      <c r="G127" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="3">
+        <v>15</v>
+      </c>
+      <c r="G128" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>24</v>
+      </c>
+      <c r="D129" s="3">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="3">
+        <v>16</v>
+      </c>
+      <c r="G129" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
+      <c r="D130" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="3">
+        <v>16</v>
+      </c>
+      <c r="G130" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>24</v>
+      </c>
+      <c r="D131" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="3">
+        <v>16</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132" s="3">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="3">
+        <v>15</v>
+      </c>
+      <c r="G132" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133" s="3">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="3">
+        <v>15</v>
+      </c>
+      <c r="G133" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+      <c r="D134" s="3">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="3">
+        <v>16</v>
+      </c>
+      <c r="G134" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>25</v>
+      </c>
+      <c r="D135" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="3">
+        <v>14</v>
+      </c>
+      <c r="G135" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>25</v>
+      </c>
+      <c r="D136" s="3">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="3">
+        <v>16</v>
+      </c>
+      <c r="G136" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+      <c r="D137" s="3">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="3">
+        <v>15</v>
+      </c>
+      <c r="G137" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+      <c r="D138" s="3">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="3">
+        <v>15</v>
+      </c>
+      <c r="G138" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="3">
+        <v>102</v>
+      </c>
+      <c r="F139" s="3">
+        <v>16</v>
+      </c>
+      <c r="G139" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>102</v>
+      </c>
+      <c r="F140" s="3">
+        <v>14</v>
+      </c>
+      <c r="G140" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>119</v>
+      </c>
+      <c r="F141" s="3">
+        <v>16</v>
+      </c>
+      <c r="G141" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>136</v>
+      </c>
+      <c r="F142" s="3">
+        <v>15</v>
+      </c>
+      <c r="G142" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>119</v>
+      </c>
+      <c r="F143" s="3">
+        <v>15</v>
+      </c>
+      <c r="G143" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>27</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144">
+        <v>102</v>
+      </c>
+      <c r="F144" s="3">
+        <v>16</v>
+      </c>
+      <c r="G144" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>27</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>85</v>
+      </c>
+      <c r="F145" s="3">
+        <v>14</v>
+      </c>
+      <c r="G145" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146">
+        <v>119</v>
+      </c>
+      <c r="F146" s="3">
+        <v>16</v>
+      </c>
+      <c r="G146" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147">
+        <v>136</v>
+      </c>
+      <c r="F147" s="3">
+        <v>15</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>119</v>
+      </c>
+      <c r="F148" s="3">
+        <v>15</v>
+      </c>
+      <c r="G148" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <v>102</v>
+      </c>
+      <c r="F149" s="3">
+        <v>16</v>
+      </c>
+      <c r="G149" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>102</v>
+      </c>
+      <c r="F150" s="3">
+        <v>14</v>
+      </c>
+      <c r="G150" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>136</v>
+      </c>
+      <c r="F151" s="3">
+        <v>16</v>
+      </c>
+      <c r="G151" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>136</v>
+      </c>
+      <c r="F152" s="3">
+        <v>15</v>
+      </c>
+      <c r="G152" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>119</v>
+      </c>
+      <c r="F153" s="3">
+        <v>15</v>
+      </c>
+      <c r="G153" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>102</v>
+      </c>
+      <c r="F154" s="3">
+        <v>16</v>
+      </c>
+      <c r="G154" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>102</v>
+      </c>
+      <c r="F155" s="3">
+        <v>14</v>
+      </c>
+      <c r="G155" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>136</v>
+      </c>
+      <c r="F156" s="3">
+        <v>16</v>
+      </c>
+      <c r="G156" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>136</v>
+      </c>
+      <c r="F157" s="3">
+        <v>15</v>
+      </c>
+      <c r="G157" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>119</v>
+      </c>
+      <c r="F158" s="3">
+        <v>15</v>
+      </c>
+      <c r="G158" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>119</v>
+      </c>
+      <c r="F159" s="3">
+        <v>16</v>
+      </c>
+      <c r="G159" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+      <c r="D160" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>102</v>
+      </c>
+      <c r="F160" s="3">
+        <v>14</v>
+      </c>
+      <c r="G160" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>136</v>
+      </c>
+      <c r="F161" s="3">
+        <v>15</v>
+      </c>
+      <c r="G161" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <v>21</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>136</v>
+      </c>
+      <c r="F162" s="3">
+        <v>15</v>
+      </c>
+      <c r="G162" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>21</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>119</v>
+      </c>
+      <c r="F163" s="3">
+        <v>15</v>
+      </c>
+      <c r="G163" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>31</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="3">
+        <v>15</v>
+      </c>
+      <c r="G164" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>31</v>
+      </c>
+      <c r="D165">
+        <v>7.8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="3">
+        <v>15</v>
+      </c>
+      <c r="G165" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>31</v>
+      </c>
+      <c r="D166">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="3">
+        <v>14</v>
+      </c>
+      <c r="G166" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="3">
+        <v>17</v>
+      </c>
+      <c r="G167" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="D168">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="3">
+        <v>15</v>
+      </c>
+      <c r="G168" s="3">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
